--- a/Sample region strata diagnostics.xlsx
+++ b/Sample region strata diagnostics.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.2550197934407395</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.4278173804683592</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3397772957368128</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2678744291832858</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.2551431978272765</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.512492017782696</v>
+        <v>1.512</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>1.971117307641991</v>
+        <v>1.971</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.259605142840297</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>2.002854661307325</v>
+        <v>2.003</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.256999568230214</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.03968037282414789</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.150629358347555</v>
+        <v>0.151</v>
       </c>
     </row>
   </sheetData>

--- a/Sample region strata diagnostics.xlsx
+++ b/Sample region strata diagnostics.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.255</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.428</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.268</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.255</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.512</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>1.971</v>
+        <v>1.901</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.26</v>
+        <v>1.268</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>2.003</v>
+        <v>1.857</v>
       </c>
     </row>
     <row r="11">
@@ -466,27 +466,17 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.257</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Unkown</t>
         </is>
       </c>
       <c r="B12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Unkown</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>0.151</v>
+        <v>0.129</v>
       </c>
     </row>
   </sheetData>
